--- a/ifqe-portal-backend5/templates/3.1.5_Template.xlsx
+++ b/ifqe-portal-backend5/templates/3.1.5_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHANDAN\Pictures\ifque updted files from 1-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\OneDrive\Documents\ifqe\criteria 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49EA7063-31F5-4067-B90B-FDC092662317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A8129A-78C9-40C1-BF1C-D0F43A5386FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9168869D-8773-4B69-8777-C7B046019AF6}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>3.1.5 Initiatives taken for disabled students</t>
   </si>
@@ -60,6 +51,9 @@
   <si>
     <t>Initiative
 Taken</t>
+  </si>
+  <si>
+    <t>Evidence Link      (ID Card, Initiative report)</t>
   </si>
 </sst>
 </file>
@@ -194,21 +188,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -373,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,85 +514,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5A5DC1-969C-4A61-9264-47C949A344EC}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="7" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:7" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+    <row r="3" spans="1:7" ht="54.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" ht="54.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="2:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+    <row r="5" spans="1:7" ht="46.8" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>